--- a/apportionment/data/Historical_Population_Data.xlsx
+++ b/apportionment/data/Historical_Population_Data.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10932" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10932" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="2" r:id="rId1"/>
     <sheet name="Enslaved" sheetId="1" r:id="rId2"/>
-    <sheet name="Historical Apportionment" sheetId="6" r:id="rId3"/>
-    <sheet name="notes" sheetId="5" r:id="rId4"/>
+    <sheet name="Indians Not Taxed" sheetId="7" r:id="rId3"/>
+    <sheet name="Historical Apportionment" sheetId="6" r:id="rId4"/>
+    <sheet name="notes" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="187">
   <si>
     <t>Name</t>
   </si>
@@ -596,6 +597,9 @@
   </si>
   <si>
     <t>Wyoming</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -1310,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6380,3063 +6384,570 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>126</v>
-      </c>
-      <c r="R1" t="s">
-        <v>127</v>
-      </c>
-      <c r="S1" t="s">
-        <v>128</v>
-      </c>
-      <c r="T1" t="s">
-        <v>129</v>
-      </c>
-      <c r="U1" t="s">
-        <v>130</v>
-      </c>
-      <c r="V1" t="s">
-        <v>131</v>
-      </c>
-      <c r="W1" t="s">
-        <v>132</v>
-      </c>
-      <c r="X1" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+      <c r="B1">
+        <v>1890</v>
+      </c>
+      <c r="C1">
+        <v>1900</v>
+      </c>
+      <c r="D1">
+        <v>1910</v>
+      </c>
+      <c r="E1">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>136</v>
       </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-      <c r="J2">
-        <v>7</v>
-      </c>
-      <c r="K2">
+      <c r="B2">
+        <v>384</v>
+      </c>
+      <c r="E2">
         <v>6</v>
       </c>
-      <c r="L2">
-        <v>8</v>
-      </c>
-      <c r="M2">
-        <v>8</v>
-      </c>
-      <c r="N2">
-        <v>9</v>
-      </c>
-      <c r="O2">
-        <v>9</v>
-      </c>
-      <c r="P2">
-        <v>10</v>
-      </c>
-      <c r="Q2">
-        <v>9</v>
-      </c>
-      <c r="R2">
-        <v>9</v>
-      </c>
-      <c r="S2">
-        <v>9</v>
-      </c>
-      <c r="T2">
-        <v>8</v>
-      </c>
-      <c r="U2">
-        <v>7</v>
-      </c>
-      <c r="V2">
-        <v>7</v>
-      </c>
-      <c r="W2">
-        <v>7</v>
-      </c>
-      <c r="X2">
-        <v>7</v>
-      </c>
-      <c r="Y2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>137</v>
       </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>138</v>
       </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>2</v>
-      </c>
-      <c r="T4">
-        <v>3</v>
-      </c>
-      <c r="U4">
-        <v>4</v>
-      </c>
-      <c r="V4">
-        <v>5</v>
-      </c>
-      <c r="W4">
-        <v>6</v>
-      </c>
-      <c r="X4">
-        <v>8</v>
-      </c>
-      <c r="Y4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>46198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>139</v>
       </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
-      <c r="M5">
-        <v>5</v>
-      </c>
-      <c r="N5">
-        <v>6</v>
-      </c>
-      <c r="O5">
-        <v>7</v>
-      </c>
-      <c r="P5">
-        <v>7</v>
-      </c>
-      <c r="Q5">
-        <v>7</v>
-      </c>
-      <c r="R5">
-        <v>7</v>
-      </c>
-      <c r="S5">
-        <v>6</v>
-      </c>
-      <c r="T5">
-        <v>4</v>
-      </c>
-      <c r="U5">
-        <v>4</v>
-      </c>
-      <c r="V5">
-        <v>4</v>
-      </c>
-      <c r="W5">
-        <v>4</v>
-      </c>
-      <c r="X5">
-        <v>4</v>
-      </c>
-      <c r="Y5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>140</v>
       </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6">
-        <v>6</v>
-      </c>
-      <c r="N6">
-        <v>7</v>
-      </c>
-      <c r="O6">
-        <v>8</v>
-      </c>
-      <c r="P6">
-        <v>11</v>
-      </c>
-      <c r="Q6">
-        <v>20</v>
-      </c>
-      <c r="R6">
-        <v>23</v>
-      </c>
-      <c r="S6">
-        <v>30</v>
-      </c>
-      <c r="T6">
-        <v>38</v>
-      </c>
-      <c r="U6">
-        <v>43</v>
-      </c>
-      <c r="V6">
-        <v>45</v>
-      </c>
-      <c r="W6">
-        <v>52</v>
-      </c>
-      <c r="X6">
-        <v>53</v>
-      </c>
-      <c r="Y6">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>5268</v>
+      </c>
+      <c r="C6">
+        <v>1519</v>
+      </c>
+      <c r="D6">
+        <v>988</v>
+      </c>
+      <c r="E6">
+        <v>9010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>141</v>
       </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-      <c r="O7">
-        <v>3</v>
-      </c>
-      <c r="P7">
-        <v>4</v>
-      </c>
-      <c r="Q7">
-        <v>4</v>
-      </c>
-      <c r="R7">
-        <v>4</v>
-      </c>
-      <c r="S7">
-        <v>4</v>
-      </c>
-      <c r="T7">
-        <v>4</v>
-      </c>
-      <c r="U7">
-        <v>5</v>
-      </c>
-      <c r="V7">
-        <v>6</v>
-      </c>
-      <c r="W7">
-        <v>6</v>
-      </c>
-      <c r="X7">
-        <v>7</v>
-      </c>
-      <c r="Y7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>1051</v>
+      </c>
+      <c r="C7">
+        <v>597</v>
+      </c>
+      <c r="D7">
+        <v>452</v>
+      </c>
+      <c r="E7">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>142</v>
       </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
       <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
         <v>6</v>
       </c>
-      <c r="H8">
-        <v>6</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8">
-        <v>4</v>
-      </c>
-      <c r="L8">
-        <v>4</v>
-      </c>
-      <c r="M8">
-        <v>4</v>
-      </c>
-      <c r="N8">
-        <v>4</v>
-      </c>
-      <c r="O8">
-        <v>5</v>
-      </c>
-      <c r="P8">
-        <v>5</v>
-      </c>
-      <c r="Q8">
-        <v>6</v>
-      </c>
-      <c r="R8">
-        <v>6</v>
-      </c>
-      <c r="S8">
-        <v>6</v>
-      </c>
-      <c r="T8">
-        <v>6</v>
-      </c>
-      <c r="U8">
-        <v>6</v>
-      </c>
-      <c r="V8">
-        <v>6</v>
-      </c>
-      <c r="W8">
-        <v>6</v>
-      </c>
-      <c r="X8">
-        <v>5</v>
-      </c>
-      <c r="Y8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>143</v>
       </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>1</v>
-      </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
-      <c r="Y9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>144</v>
       </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-      <c r="N10">
-        <v>2</v>
-      </c>
-      <c r="O10">
-        <v>3</v>
-      </c>
-      <c r="P10">
-        <v>4</v>
-      </c>
-      <c r="Q10">
-        <v>5</v>
-      </c>
-      <c r="R10">
-        <v>6</v>
-      </c>
-      <c r="S10">
-        <v>8</v>
-      </c>
-      <c r="T10">
-        <v>12</v>
-      </c>
-      <c r="U10">
-        <v>15</v>
-      </c>
-      <c r="V10">
-        <v>19</v>
-      </c>
-      <c r="W10">
-        <v>23</v>
-      </c>
-      <c r="X10">
-        <v>25</v>
-      </c>
-      <c r="Y10">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>145</v>
       </c>
-      <c r="B11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
       <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11">
-        <v>7</v>
-      </c>
-      <c r="H11">
-        <v>9</v>
-      </c>
-      <c r="I11">
-        <v>8</v>
-      </c>
-      <c r="J11">
-        <v>8</v>
-      </c>
-      <c r="K11">
-        <v>7</v>
-      </c>
-      <c r="L11">
-        <v>9</v>
-      </c>
-      <c r="M11">
-        <v>10</v>
-      </c>
-      <c r="N11">
-        <v>11</v>
-      </c>
-      <c r="O11">
-        <v>11</v>
-      </c>
-      <c r="P11">
-        <v>12</v>
-      </c>
-      <c r="Q11">
-        <v>10</v>
-      </c>
-      <c r="R11">
-        <v>10</v>
-      </c>
-      <c r="S11">
-        <v>10</v>
-      </c>
-      <c r="T11">
-        <v>10</v>
-      </c>
-      <c r="U11">
-        <v>10</v>
-      </c>
-      <c r="V11">
-        <v>10</v>
-      </c>
-      <c r="W11">
-        <v>11</v>
-      </c>
-      <c r="X11">
-        <v>13</v>
-      </c>
-      <c r="Y11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>146</v>
       </c>
-      <c r="B12" t="s">
-        <v>72</v>
-      </c>
-      <c r="T12">
-        <v>2</v>
-      </c>
-      <c r="U12">
-        <v>2</v>
-      </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
-      <c r="W12">
-        <v>2</v>
-      </c>
-      <c r="X12">
-        <v>2</v>
-      </c>
-      <c r="Y12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>147</v>
       </c>
-      <c r="B13" t="s">
-        <v>73</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>2</v>
-      </c>
-      <c r="Q13">
-        <v>2</v>
-      </c>
-      <c r="R13">
-        <v>2</v>
-      </c>
-      <c r="S13">
-        <v>2</v>
-      </c>
-      <c r="T13">
-        <v>2</v>
-      </c>
-      <c r="U13">
-        <v>2</v>
-      </c>
-      <c r="V13">
-        <v>2</v>
-      </c>
-      <c r="W13">
-        <v>2</v>
-      </c>
-      <c r="X13">
-        <v>2</v>
-      </c>
-      <c r="Y13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>4163</v>
+      </c>
+      <c r="C13">
+        <v>2297</v>
+      </c>
+      <c r="D13">
+        <v>2154</v>
+      </c>
+      <c r="E13">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>148</v>
       </c>
-      <c r="B14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="I14">
-        <v>7</v>
-      </c>
-      <c r="J14">
-        <v>9</v>
-      </c>
-      <c r="K14">
-        <v>14</v>
-      </c>
-      <c r="L14">
-        <v>19</v>
-      </c>
-      <c r="M14">
-        <v>20</v>
-      </c>
-      <c r="N14">
-        <v>22</v>
-      </c>
-      <c r="O14">
-        <v>25</v>
-      </c>
-      <c r="P14">
-        <v>27</v>
-      </c>
-      <c r="Q14">
-        <v>27</v>
-      </c>
-      <c r="R14">
-        <v>26</v>
-      </c>
-      <c r="S14">
-        <v>25</v>
-      </c>
-      <c r="T14">
-        <v>24</v>
-      </c>
-      <c r="U14">
-        <v>24</v>
-      </c>
-      <c r="V14">
-        <v>22</v>
-      </c>
-      <c r="W14">
-        <v>20</v>
-      </c>
-      <c r="X14">
-        <v>19</v>
-      </c>
-      <c r="Y14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>149</v>
       </c>
-      <c r="B15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <v>7</v>
-      </c>
-      <c r="I15">
-        <v>10</v>
-      </c>
-      <c r="J15">
-        <v>11</v>
-      </c>
-      <c r="K15">
-        <v>11</v>
-      </c>
-      <c r="L15">
-        <v>13</v>
-      </c>
-      <c r="M15">
-        <v>13</v>
-      </c>
-      <c r="N15">
-        <v>13</v>
-      </c>
-      <c r="O15">
-        <v>13</v>
-      </c>
-      <c r="P15">
-        <v>13</v>
-      </c>
-      <c r="Q15">
-        <v>12</v>
-      </c>
-      <c r="R15">
-        <v>11</v>
-      </c>
-      <c r="S15">
-        <v>11</v>
-      </c>
-      <c r="T15">
-        <v>11</v>
-      </c>
-      <c r="U15">
-        <v>11</v>
-      </c>
-      <c r="V15">
-        <v>10</v>
-      </c>
-      <c r="W15">
-        <v>10</v>
-      </c>
-      <c r="X15">
-        <v>9</v>
-      </c>
-      <c r="Y15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>150</v>
       </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16">
-        <v>6</v>
-      </c>
-      <c r="L16">
-        <v>9</v>
-      </c>
-      <c r="M16">
-        <v>11</v>
-      </c>
-      <c r="N16">
-        <v>11</v>
-      </c>
-      <c r="O16">
-        <v>11</v>
-      </c>
-      <c r="P16">
-        <v>11</v>
-      </c>
-      <c r="Q16">
-        <v>9</v>
-      </c>
-      <c r="R16">
-        <v>8</v>
-      </c>
-      <c r="S16">
-        <v>8</v>
-      </c>
-      <c r="T16">
-        <v>7</v>
-      </c>
-      <c r="U16">
-        <v>6</v>
-      </c>
-      <c r="V16">
-        <v>6</v>
-      </c>
-      <c r="W16">
-        <v>5</v>
-      </c>
-      <c r="X16">
-        <v>5</v>
-      </c>
-      <c r="Y16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>401</v>
+      </c>
+      <c r="E16">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>151</v>
       </c>
-      <c r="B17" t="s">
-        <v>77</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>3</v>
-      </c>
-      <c r="M17">
-        <v>7</v>
-      </c>
-      <c r="N17">
-        <v>8</v>
-      </c>
-      <c r="O17">
-        <v>8</v>
-      </c>
-      <c r="P17">
-        <v>8</v>
-      </c>
-      <c r="Q17">
-        <v>7</v>
-      </c>
-      <c r="R17">
-        <v>6</v>
-      </c>
-      <c r="S17">
-        <v>6</v>
-      </c>
-      <c r="T17">
-        <v>5</v>
-      </c>
-      <c r="U17">
-        <v>5</v>
-      </c>
-      <c r="V17">
-        <v>5</v>
-      </c>
-      <c r="W17">
-        <v>4</v>
-      </c>
-      <c r="X17">
-        <v>4</v>
-      </c>
-      <c r="Y17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>1012</v>
+      </c>
+      <c r="E17">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>152</v>
       </c>
-      <c r="B18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
       <c r="E18">
-        <v>6</v>
-      </c>
-      <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="G18">
-        <v>12</v>
-      </c>
-      <c r="H18">
-        <v>13</v>
-      </c>
-      <c r="I18">
-        <v>10</v>
-      </c>
-      <c r="J18">
-        <v>10</v>
-      </c>
-      <c r="K18">
-        <v>9</v>
-      </c>
-      <c r="L18">
-        <v>10</v>
-      </c>
-      <c r="M18">
-        <v>11</v>
-      </c>
-      <c r="N18">
-        <v>11</v>
-      </c>
-      <c r="O18">
-        <v>11</v>
-      </c>
-      <c r="P18">
-        <v>11</v>
-      </c>
-      <c r="Q18">
-        <v>9</v>
-      </c>
-      <c r="R18">
-        <v>9</v>
-      </c>
-      <c r="S18">
-        <v>8</v>
-      </c>
-      <c r="T18">
-        <v>7</v>
-      </c>
-      <c r="U18">
-        <v>7</v>
-      </c>
-      <c r="V18">
-        <v>7</v>
-      </c>
-      <c r="W18">
-        <v>6</v>
-      </c>
-      <c r="X18">
-        <v>6</v>
-      </c>
-      <c r="Y18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>153</v>
       </c>
-      <c r="B19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="I19">
-        <v>4</v>
-      </c>
-      <c r="J19">
-        <v>4</v>
-      </c>
-      <c r="K19">
-        <v>5</v>
-      </c>
-      <c r="L19">
-        <v>6</v>
-      </c>
-      <c r="M19">
-        <v>6</v>
-      </c>
-      <c r="N19">
-        <v>6</v>
-      </c>
-      <c r="O19">
-        <v>7</v>
-      </c>
-      <c r="P19">
-        <v>8</v>
-      </c>
-      <c r="Q19">
-        <v>8</v>
-      </c>
-      <c r="R19">
-        <v>8</v>
-      </c>
-      <c r="S19">
-        <v>8</v>
-      </c>
-      <c r="T19">
-        <v>8</v>
-      </c>
-      <c r="U19">
-        <v>8</v>
-      </c>
-      <c r="V19">
-        <v>8</v>
-      </c>
-      <c r="W19">
-        <v>7</v>
-      </c>
-      <c r="X19">
-        <v>7</v>
-      </c>
-      <c r="Y19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>154</v>
       </c>
-      <c r="B20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20">
-        <v>7</v>
-      </c>
-      <c r="H20">
-        <v>8</v>
-      </c>
-      <c r="I20">
-        <v>7</v>
-      </c>
-      <c r="J20">
-        <v>6</v>
-      </c>
-      <c r="K20">
+      <c r="E20">
         <v>5</v>
       </c>
-      <c r="L20">
-        <v>5</v>
-      </c>
-      <c r="M20">
-        <v>4</v>
-      </c>
-      <c r="N20">
-        <v>4</v>
-      </c>
-      <c r="O20">
-        <v>4</v>
-      </c>
-      <c r="P20">
-        <v>4</v>
-      </c>
-      <c r="Q20">
-        <v>3</v>
-      </c>
-      <c r="R20">
-        <v>3</v>
-      </c>
-      <c r="S20">
-        <v>3</v>
-      </c>
-      <c r="T20">
-        <v>2</v>
-      </c>
-      <c r="U20">
-        <v>2</v>
-      </c>
-      <c r="V20">
-        <v>2</v>
-      </c>
-      <c r="W20">
-        <v>2</v>
-      </c>
-      <c r="X20">
-        <v>2</v>
-      </c>
-      <c r="Y20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>155</v>
       </c>
-      <c r="B21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21">
-        <v>6</v>
-      </c>
-      <c r="D21">
-        <v>8</v>
-      </c>
       <c r="E21">
-        <v>9</v>
-      </c>
-      <c r="F21">
-        <v>9</v>
-      </c>
-      <c r="G21">
-        <v>9</v>
-      </c>
-      <c r="H21">
-        <v>8</v>
-      </c>
-      <c r="I21">
-        <v>6</v>
-      </c>
-      <c r="J21">
-        <v>6</v>
-      </c>
-      <c r="K21">
-        <v>5</v>
-      </c>
-      <c r="L21">
-        <v>6</v>
-      </c>
-      <c r="M21">
-        <v>6</v>
-      </c>
-      <c r="N21">
-        <v>6</v>
-      </c>
-      <c r="O21">
-        <v>6</v>
-      </c>
-      <c r="P21">
-        <v>6</v>
-      </c>
-      <c r="Q21">
-        <v>6</v>
-      </c>
-      <c r="R21">
-        <v>6</v>
-      </c>
-      <c r="S21">
-        <v>7</v>
-      </c>
-      <c r="T21">
-        <v>8</v>
-      </c>
-      <c r="U21">
-        <v>8</v>
-      </c>
-      <c r="V21">
-        <v>8</v>
-      </c>
-      <c r="W21">
-        <v>8</v>
-      </c>
-      <c r="X21">
-        <v>8</v>
-      </c>
-      <c r="Y21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>156</v>
       </c>
-      <c r="B22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22">
-        <v>8</v>
-      </c>
-      <c r="D22">
-        <v>14</v>
+      <c r="B22">
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>17</v>
-      </c>
-      <c r="F22">
-        <v>20</v>
-      </c>
-      <c r="G22">
-        <v>13</v>
-      </c>
-      <c r="H22">
-        <v>12</v>
-      </c>
-      <c r="I22">
-        <v>10</v>
-      </c>
-      <c r="J22">
-        <v>11</v>
-      </c>
-      <c r="K22">
-        <v>10</v>
-      </c>
-      <c r="L22">
-        <v>11</v>
-      </c>
-      <c r="M22">
-        <v>12</v>
-      </c>
-      <c r="N22">
-        <v>13</v>
-      </c>
-      <c r="O22">
-        <v>14</v>
-      </c>
-      <c r="P22">
         <v>16</v>
       </c>
-      <c r="Q22">
-        <v>15</v>
-      </c>
-      <c r="R22">
-        <v>14</v>
-      </c>
-      <c r="S22">
-        <v>14</v>
-      </c>
-      <c r="T22">
-        <v>12</v>
-      </c>
-      <c r="U22">
-        <v>12</v>
-      </c>
-      <c r="V22">
-        <v>11</v>
-      </c>
-      <c r="W22">
-        <v>10</v>
-      </c>
-      <c r="X22">
-        <v>10</v>
-      </c>
-      <c r="Y22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>157</v>
       </c>
-      <c r="B23" t="s">
-        <v>83</v>
-      </c>
-      <c r="I23">
-        <v>3</v>
-      </c>
-      <c r="J23">
-        <v>4</v>
-      </c>
-      <c r="K23">
-        <v>6</v>
-      </c>
-      <c r="L23">
-        <v>9</v>
-      </c>
-      <c r="M23">
-        <v>11</v>
-      </c>
-      <c r="N23">
-        <v>12</v>
-      </c>
-      <c r="O23">
-        <v>12</v>
-      </c>
-      <c r="P23">
-        <v>13</v>
-      </c>
-      <c r="Q23">
-        <v>17</v>
-      </c>
-      <c r="R23">
-        <v>17</v>
-      </c>
-      <c r="S23">
-        <v>18</v>
-      </c>
-      <c r="T23">
-        <v>19</v>
-      </c>
-      <c r="U23">
-        <v>19</v>
-      </c>
-      <c r="V23">
-        <v>18</v>
-      </c>
-      <c r="W23">
-        <v>16</v>
-      </c>
-      <c r="X23">
-        <v>15</v>
-      </c>
-      <c r="Y23">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>158</v>
       </c>
-      <c r="B24" t="s">
-        <v>84</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>3</v>
-      </c>
-      <c r="M24">
-        <v>5</v>
-      </c>
-      <c r="N24">
-        <v>7</v>
-      </c>
-      <c r="O24">
-        <v>9</v>
-      </c>
-      <c r="P24">
-        <v>10</v>
-      </c>
-      <c r="Q24">
-        <v>9</v>
-      </c>
-      <c r="R24">
-        <v>9</v>
-      </c>
-      <c r="S24">
-        <v>9</v>
-      </c>
-      <c r="T24">
-        <v>8</v>
-      </c>
-      <c r="U24">
-        <v>8</v>
-      </c>
-      <c r="V24">
-        <v>8</v>
-      </c>
-      <c r="W24">
-        <v>8</v>
-      </c>
-      <c r="X24">
-        <v>8</v>
-      </c>
-      <c r="Y24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>8457</v>
+      </c>
+      <c r="C24">
+        <v>1768</v>
+      </c>
+      <c r="D24">
+        <v>1332</v>
+      </c>
+      <c r="E24">
+        <v>12370</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>159</v>
       </c>
-      <c r="B25" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
-      </c>
-      <c r="I25">
-        <v>4</v>
-      </c>
-      <c r="J25">
-        <v>5</v>
-      </c>
-      <c r="K25">
-        <v>5</v>
-      </c>
-      <c r="L25">
-        <v>6</v>
-      </c>
-      <c r="M25">
-        <v>7</v>
-      </c>
-      <c r="N25">
-        <v>7</v>
-      </c>
-      <c r="O25">
-        <v>8</v>
-      </c>
-      <c r="P25">
-        <v>8</v>
-      </c>
-      <c r="Q25">
-        <v>7</v>
-      </c>
-      <c r="R25">
-        <v>7</v>
-      </c>
-      <c r="S25">
-        <v>6</v>
-      </c>
-      <c r="T25">
-        <v>5</v>
-      </c>
-      <c r="U25">
-        <v>5</v>
-      </c>
-      <c r="V25">
-        <v>5</v>
-      </c>
-      <c r="W25">
-        <v>5</v>
-      </c>
-      <c r="X25">
-        <v>4</v>
-      </c>
-      <c r="Y25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>160</v>
       </c>
-      <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="I26">
-        <v>5</v>
-      </c>
-      <c r="J26">
-        <v>7</v>
-      </c>
-      <c r="K26">
-        <v>9</v>
-      </c>
-      <c r="L26">
-        <v>13</v>
-      </c>
-      <c r="M26">
-        <v>14</v>
-      </c>
-      <c r="N26">
-        <v>15</v>
-      </c>
-      <c r="O26">
-        <v>16</v>
-      </c>
-      <c r="P26">
-        <v>16</v>
-      </c>
-      <c r="Q26">
-        <v>13</v>
-      </c>
-      <c r="R26">
-        <v>13</v>
-      </c>
-      <c r="S26">
-        <v>11</v>
-      </c>
-      <c r="T26">
-        <v>10</v>
-      </c>
-      <c r="U26">
-        <v>10</v>
-      </c>
-      <c r="V26">
-        <v>9</v>
-      </c>
-      <c r="W26">
-        <v>9</v>
-      </c>
-      <c r="X26">
-        <v>9</v>
-      </c>
-      <c r="Y26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>161</v>
       </c>
-      <c r="B27" t="s">
-        <v>87</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="P27">
-        <v>2</v>
-      </c>
-      <c r="Q27">
-        <v>2</v>
-      </c>
-      <c r="R27">
-        <v>2</v>
-      </c>
-      <c r="S27">
-        <v>2</v>
-      </c>
-      <c r="T27">
-        <v>2</v>
-      </c>
-      <c r="U27">
-        <v>2</v>
-      </c>
-      <c r="V27">
-        <v>2</v>
-      </c>
-      <c r="W27">
-        <v>1</v>
-      </c>
-      <c r="X27">
-        <v>1</v>
-      </c>
-      <c r="Y27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>10765</v>
+      </c>
+      <c r="C27">
+        <v>10746</v>
+      </c>
+      <c r="D27">
+        <v>9715</v>
+      </c>
+      <c r="E27">
+        <v>12877</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>162</v>
       </c>
-      <c r="B28" t="s">
-        <v>88</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>3</v>
-      </c>
-      <c r="N28">
-        <v>6</v>
-      </c>
-      <c r="O28">
-        <v>6</v>
-      </c>
-      <c r="P28">
-        <v>6</v>
-      </c>
-      <c r="Q28">
-        <v>5</v>
-      </c>
-      <c r="R28">
-        <v>4</v>
-      </c>
-      <c r="S28">
-        <v>4</v>
-      </c>
-      <c r="T28">
-        <v>3</v>
-      </c>
-      <c r="U28">
-        <v>3</v>
-      </c>
-      <c r="V28">
-        <v>3</v>
-      </c>
-      <c r="W28">
-        <v>3</v>
-      </c>
-      <c r="X28">
-        <v>3</v>
-      </c>
-      <c r="Y28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>3746</v>
+      </c>
+      <c r="E28">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>163</v>
       </c>
-      <c r="B29" t="s">
-        <v>89</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="P29">
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-      <c r="R29">
-        <v>1</v>
-      </c>
-      <c r="S29">
-        <v>1</v>
-      </c>
-      <c r="T29">
-        <v>1</v>
-      </c>
-      <c r="U29">
-        <v>1</v>
-      </c>
-      <c r="V29">
-        <v>2</v>
-      </c>
-      <c r="W29">
-        <v>2</v>
-      </c>
-      <c r="X29">
-        <v>3</v>
-      </c>
-      <c r="Y29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>1594</v>
+      </c>
+      <c r="C29">
+        <v>1665</v>
+      </c>
+      <c r="D29">
+        <v>1582</v>
+      </c>
+      <c r="E29">
+        <v>4668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>164</v>
       </c>
-      <c r="B30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30">
-        <v>4</v>
-      </c>
       <c r="E30">
-        <v>5</v>
-      </c>
-      <c r="F30">
-        <v>6</v>
-      </c>
-      <c r="G30">
-        <v>6</v>
-      </c>
-      <c r="H30">
-        <v>5</v>
-      </c>
-      <c r="I30">
-        <v>4</v>
-      </c>
-      <c r="J30">
-        <v>3</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>3</v>
-      </c>
-      <c r="M30">
-        <v>2</v>
-      </c>
-      <c r="N30">
-        <v>2</v>
-      </c>
-      <c r="O30">
-        <v>2</v>
-      </c>
-      <c r="P30">
-        <v>2</v>
-      </c>
-      <c r="Q30">
-        <v>2</v>
-      </c>
-      <c r="R30">
-        <v>2</v>
-      </c>
-      <c r="S30">
-        <v>2</v>
-      </c>
-      <c r="T30">
-        <v>2</v>
-      </c>
-      <c r="U30">
-        <v>2</v>
-      </c>
-      <c r="V30">
-        <v>2</v>
-      </c>
-      <c r="W30">
-        <v>2</v>
-      </c>
-      <c r="X30">
-        <v>2</v>
-      </c>
-      <c r="Y30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>165</v>
       </c>
-      <c r="B31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-      <c r="D31">
-        <v>5</v>
-      </c>
       <c r="E31">
-        <v>6</v>
-      </c>
-      <c r="F31">
-        <v>6</v>
-      </c>
-      <c r="G31">
-        <v>6</v>
-      </c>
-      <c r="H31">
-        <v>6</v>
-      </c>
-      <c r="I31">
-        <v>5</v>
-      </c>
-      <c r="J31">
-        <v>5</v>
-      </c>
-      <c r="K31">
-        <v>5</v>
-      </c>
-      <c r="L31">
-        <v>7</v>
-      </c>
-      <c r="M31">
-        <v>7</v>
-      </c>
-      <c r="N31">
-        <v>8</v>
-      </c>
-      <c r="O31">
-        <v>10</v>
-      </c>
-      <c r="P31">
-        <v>12</v>
-      </c>
-      <c r="Q31">
-        <v>14</v>
-      </c>
-      <c r="R31">
-        <v>14</v>
-      </c>
-      <c r="S31">
-        <v>14</v>
-      </c>
-      <c r="T31">
         <v>15</v>
       </c>
-      <c r="U31">
-        <v>15</v>
-      </c>
-      <c r="V31">
-        <v>14</v>
-      </c>
-      <c r="W31">
-        <v>13</v>
-      </c>
-      <c r="X31">
-        <v>13</v>
-      </c>
-      <c r="Y31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>166</v>
       </c>
-      <c r="B32" t="s">
-        <v>92</v>
-      </c>
-      <c r="P32">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-      <c r="R32">
-        <v>2</v>
-      </c>
-      <c r="S32">
-        <v>2</v>
-      </c>
-      <c r="T32">
-        <v>2</v>
-      </c>
-      <c r="U32">
-        <v>2</v>
-      </c>
-      <c r="V32">
-        <v>3</v>
-      </c>
-      <c r="W32">
-        <v>3</v>
-      </c>
-      <c r="X32">
-        <v>3</v>
-      </c>
-      <c r="Y32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>27335</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>167</v>
       </c>
-      <c r="B33" t="s">
-        <v>93</v>
+      <c r="B33">
+        <v>5321</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>4711</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>4680</v>
       </c>
       <c r="E33">
-        <v>17</v>
-      </c>
-      <c r="F33">
-        <v>27</v>
-      </c>
-      <c r="G33">
-        <v>34</v>
-      </c>
-      <c r="H33">
-        <v>40</v>
-      </c>
-      <c r="I33">
-        <v>34</v>
-      </c>
-      <c r="J33">
-        <v>33</v>
-      </c>
-      <c r="K33">
-        <v>31</v>
-      </c>
-      <c r="L33">
-        <v>33</v>
-      </c>
-      <c r="M33">
-        <v>34</v>
-      </c>
-      <c r="N33">
-        <v>34</v>
-      </c>
-      <c r="O33">
-        <v>37</v>
-      </c>
-      <c r="P33">
-        <v>43</v>
-      </c>
-      <c r="Q33">
-        <v>45</v>
-      </c>
-      <c r="R33">
-        <v>45</v>
-      </c>
-      <c r="S33">
-        <v>43</v>
-      </c>
-      <c r="T33">
-        <v>41</v>
-      </c>
-      <c r="U33">
-        <v>39</v>
-      </c>
-      <c r="V33">
-        <v>34</v>
-      </c>
-      <c r="W33">
-        <v>31</v>
-      </c>
-      <c r="X33">
-        <v>29</v>
-      </c>
-      <c r="Y33">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>168</v>
       </c>
-      <c r="B34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-      <c r="D34">
-        <v>10</v>
+      <c r="B34">
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>12</v>
-      </c>
-      <c r="F34">
-        <v>13</v>
-      </c>
-      <c r="G34">
-        <v>13</v>
-      </c>
-      <c r="H34">
-        <v>13</v>
-      </c>
-      <c r="I34">
-        <v>9</v>
-      </c>
-      <c r="J34">
-        <v>8</v>
-      </c>
-      <c r="K34">
-        <v>7</v>
-      </c>
-      <c r="L34">
-        <v>8</v>
-      </c>
-      <c r="M34">
-        <v>9</v>
-      </c>
-      <c r="N34">
-        <v>9</v>
-      </c>
-      <c r="O34">
-        <v>10</v>
-      </c>
-      <c r="P34">
-        <v>10</v>
-      </c>
-      <c r="Q34">
-        <v>11</v>
-      </c>
-      <c r="R34">
-        <v>12</v>
-      </c>
-      <c r="S34">
-        <v>12</v>
-      </c>
-      <c r="T34">
-        <v>11</v>
-      </c>
-      <c r="U34">
-        <v>11</v>
-      </c>
-      <c r="V34">
-        <v>11</v>
-      </c>
-      <c r="W34">
-        <v>12</v>
-      </c>
-      <c r="X34">
-        <v>13</v>
-      </c>
-      <c r="Y34">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>169</v>
       </c>
-      <c r="B35" t="s">
-        <v>95</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>2</v>
-      </c>
-      <c r="P35">
-        <v>3</v>
-      </c>
-      <c r="Q35">
-        <v>2</v>
-      </c>
-      <c r="R35">
-        <v>2</v>
-      </c>
-      <c r="S35">
-        <v>2</v>
-      </c>
-      <c r="T35">
-        <v>2</v>
-      </c>
-      <c r="U35">
-        <v>1</v>
-      </c>
-      <c r="V35">
-        <v>1</v>
-      </c>
-      <c r="W35">
-        <v>1</v>
-      </c>
-      <c r="X35">
-        <v>1</v>
-      </c>
-      <c r="Y35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>8264</v>
+      </c>
+      <c r="C35">
+        <v>4692</v>
+      </c>
+      <c r="D35">
+        <v>2653</v>
+      </c>
+      <c r="E35">
+        <v>7505</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>170</v>
       </c>
-      <c r="B36" t="s">
-        <v>96</v>
+      <c r="B36">
+        <v>13</v>
       </c>
       <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>6</v>
-      </c>
-      <c r="G36">
-        <v>14</v>
-      </c>
-      <c r="H36">
-        <v>19</v>
-      </c>
-      <c r="I36">
-        <v>21</v>
-      </c>
-      <c r="J36">
-        <v>21</v>
-      </c>
-      <c r="K36">
-        <v>19</v>
-      </c>
-      <c r="L36">
-        <v>20</v>
-      </c>
-      <c r="M36">
-        <v>21</v>
-      </c>
-      <c r="N36">
-        <v>21</v>
-      </c>
-      <c r="O36">
-        <v>21</v>
-      </c>
-      <c r="P36">
-        <v>22</v>
-      </c>
-      <c r="Q36">
-        <v>24</v>
-      </c>
-      <c r="R36">
-        <v>23</v>
-      </c>
-      <c r="S36">
-        <v>23</v>
-      </c>
-      <c r="T36">
-        <v>24</v>
-      </c>
-      <c r="U36">
-        <v>23</v>
-      </c>
-      <c r="V36">
-        <v>21</v>
-      </c>
-      <c r="W36">
-        <v>19</v>
-      </c>
-      <c r="X36">
-        <v>18</v>
-      </c>
-      <c r="Y36">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>171</v>
       </c>
-      <c r="B37" t="s">
-        <v>97</v>
-      </c>
-      <c r="P37">
-        <v>8</v>
-      </c>
-      <c r="Q37">
-        <v>9</v>
-      </c>
-      <c r="R37">
-        <v>8</v>
-      </c>
-      <c r="S37">
-        <v>6</v>
-      </c>
-      <c r="T37">
-        <v>6</v>
-      </c>
-      <c r="U37">
-        <v>6</v>
-      </c>
-      <c r="V37">
-        <v>6</v>
-      </c>
-      <c r="W37">
-        <v>6</v>
-      </c>
-      <c r="X37">
-        <v>5</v>
-      </c>
-      <c r="Y37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>13818</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>172</v>
       </c>
-      <c r="B38" t="s">
-        <v>98</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38">
-        <v>2</v>
-      </c>
-      <c r="O38">
-        <v>2</v>
-      </c>
-      <c r="P38">
-        <v>3</v>
-      </c>
-      <c r="Q38">
-        <v>3</v>
-      </c>
-      <c r="R38">
-        <v>4</v>
-      </c>
-      <c r="S38">
-        <v>4</v>
-      </c>
-      <c r="T38">
-        <v>4</v>
-      </c>
-      <c r="U38">
-        <v>4</v>
-      </c>
-      <c r="V38">
-        <v>5</v>
-      </c>
-      <c r="W38">
-        <v>5</v>
-      </c>
-      <c r="X38">
-        <v>5</v>
-      </c>
-      <c r="Y38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>3937</v>
+      </c>
+      <c r="E38">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>173</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39">
         <v>99</v>
       </c>
-      <c r="C39">
-        <v>8</v>
-      </c>
-      <c r="D39">
-        <v>13</v>
-      </c>
       <c r="E39">
-        <v>18</v>
-      </c>
-      <c r="F39">
-        <v>23</v>
-      </c>
-      <c r="G39">
-        <v>26</v>
-      </c>
-      <c r="H39">
-        <v>28</v>
-      </c>
-      <c r="I39">
-        <v>24</v>
-      </c>
-      <c r="J39">
-        <v>25</v>
-      </c>
-      <c r="K39">
-        <v>24</v>
-      </c>
-      <c r="L39">
-        <v>27</v>
-      </c>
-      <c r="M39">
-        <v>28</v>
-      </c>
-      <c r="N39">
-        <v>30</v>
-      </c>
-      <c r="O39">
-        <v>32</v>
-      </c>
-      <c r="P39">
-        <v>36</v>
-      </c>
-      <c r="Q39">
-        <v>34</v>
-      </c>
-      <c r="R39">
-        <v>33</v>
-      </c>
-      <c r="S39">
-        <v>30</v>
-      </c>
-      <c r="T39">
-        <v>27</v>
-      </c>
-      <c r="U39">
-        <v>25</v>
-      </c>
-      <c r="V39">
-        <v>23</v>
-      </c>
-      <c r="W39">
-        <v>21</v>
-      </c>
-      <c r="X39">
-        <v>19</v>
-      </c>
-      <c r="Y39">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>174</v>
       </c>
-      <c r="B40" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40">
-        <v>2</v>
-      </c>
-      <c r="I40">
-        <v>2</v>
-      </c>
-      <c r="J40">
-        <v>2</v>
-      </c>
-      <c r="K40">
-        <v>2</v>
-      </c>
-      <c r="L40">
-        <v>2</v>
-      </c>
-      <c r="M40">
-        <v>2</v>
-      </c>
-      <c r="N40">
-        <v>2</v>
-      </c>
-      <c r="O40">
-        <v>2</v>
-      </c>
-      <c r="P40">
-        <v>3</v>
-      </c>
-      <c r="Q40">
-        <v>2</v>
-      </c>
-      <c r="R40">
-        <v>2</v>
-      </c>
-      <c r="S40">
-        <v>2</v>
-      </c>
-      <c r="T40">
-        <v>2</v>
-      </c>
-      <c r="U40">
-        <v>2</v>
-      </c>
-      <c r="V40">
-        <v>2</v>
-      </c>
-      <c r="W40">
-        <v>2</v>
-      </c>
-      <c r="X40">
-        <v>2</v>
-      </c>
-      <c r="Y40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>175</v>
       </c>
-      <c r="B41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41">
+      <c r="E41">
         <v>5</v>
       </c>
-      <c r="D41">
-        <v>6</v>
-      </c>
-      <c r="E41">
-        <v>8</v>
-      </c>
-      <c r="F41">
-        <v>9</v>
-      </c>
-      <c r="G41">
-        <v>9</v>
-      </c>
-      <c r="H41">
-        <v>9</v>
-      </c>
-      <c r="I41">
-        <v>7</v>
-      </c>
-      <c r="J41">
-        <v>6</v>
-      </c>
-      <c r="K41">
-        <v>4</v>
-      </c>
-      <c r="L41">
-        <v>5</v>
-      </c>
-      <c r="M41">
-        <v>7</v>
-      </c>
-      <c r="N41">
-        <v>7</v>
-      </c>
-      <c r="O41">
-        <v>7</v>
-      </c>
-      <c r="P41">
-        <v>7</v>
-      </c>
-      <c r="Q41">
-        <v>6</v>
-      </c>
-      <c r="R41">
-        <v>6</v>
-      </c>
-      <c r="S41">
-        <v>6</v>
-      </c>
-      <c r="T41">
-        <v>6</v>
-      </c>
-      <c r="U41">
-        <v>6</v>
-      </c>
-      <c r="V41">
-        <v>6</v>
-      </c>
-      <c r="W41">
-        <v>6</v>
-      </c>
-      <c r="X41">
-        <v>6</v>
-      </c>
-      <c r="Y41">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>176</v>
       </c>
-      <c r="B42" t="s">
-        <v>102</v>
-      </c>
-      <c r="N42">
-        <v>2</v>
-      </c>
-      <c r="O42">
-        <v>2</v>
-      </c>
-      <c r="P42">
-        <v>3</v>
-      </c>
-      <c r="Q42">
-        <v>2</v>
-      </c>
-      <c r="R42">
-        <v>2</v>
-      </c>
-      <c r="S42">
-        <v>2</v>
-      </c>
-      <c r="T42">
-        <v>2</v>
-      </c>
-      <c r="U42">
-        <v>2</v>
-      </c>
-      <c r="V42">
-        <v>1</v>
-      </c>
-      <c r="W42">
-        <v>1</v>
-      </c>
-      <c r="X42">
-        <v>1</v>
-      </c>
-      <c r="Y42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>19792</v>
+      </c>
+      <c r="C42">
+        <v>10932</v>
+      </c>
+      <c r="D42">
+        <v>8212</v>
+      </c>
+      <c r="E42">
+        <v>19844</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>177</v>
       </c>
-      <c r="B43" t="s">
-        <v>103</v>
-      </c>
       <c r="E43">
-        <v>3</v>
-      </c>
-      <c r="F43">
-        <v>6</v>
-      </c>
-      <c r="G43">
-        <v>9</v>
-      </c>
-      <c r="H43">
-        <v>13</v>
-      </c>
-      <c r="I43">
-        <v>11</v>
-      </c>
-      <c r="J43">
-        <v>10</v>
-      </c>
-      <c r="K43">
-        <v>8</v>
-      </c>
-      <c r="L43">
-        <v>10</v>
-      </c>
-      <c r="M43">
-        <v>10</v>
-      </c>
-      <c r="N43">
-        <v>10</v>
-      </c>
-      <c r="O43">
-        <v>10</v>
-      </c>
-      <c r="P43">
-        <v>10</v>
-      </c>
-      <c r="Q43">
-        <v>9</v>
-      </c>
-      <c r="R43">
-        <v>10</v>
-      </c>
-      <c r="S43">
-        <v>9</v>
-      </c>
-      <c r="T43">
-        <v>9</v>
-      </c>
-      <c r="U43">
-        <v>8</v>
-      </c>
-      <c r="V43">
-        <v>9</v>
-      </c>
-      <c r="W43">
-        <v>9</v>
-      </c>
-      <c r="X43">
-        <v>9</v>
-      </c>
-      <c r="Y43">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>178</v>
       </c>
-      <c r="B44" t="s">
-        <v>104</v>
-      </c>
-      <c r="J44">
-        <v>2</v>
-      </c>
-      <c r="K44">
+      <c r="B44">
         <v>4</v>
       </c>
-      <c r="L44">
-        <v>6</v>
-      </c>
-      <c r="M44">
-        <v>11</v>
-      </c>
-      <c r="N44">
-        <v>13</v>
-      </c>
-      <c r="O44">
-        <v>16</v>
-      </c>
-      <c r="P44">
-        <v>18</v>
-      </c>
-      <c r="Q44">
-        <v>21</v>
-      </c>
-      <c r="R44">
-        <v>21</v>
-      </c>
-      <c r="S44">
-        <v>22</v>
-      </c>
-      <c r="T44">
-        <v>23</v>
-      </c>
-      <c r="U44">
-        <v>24</v>
-      </c>
-      <c r="V44">
-        <v>27</v>
-      </c>
-      <c r="W44">
-        <v>30</v>
-      </c>
-      <c r="X44">
-        <v>32</v>
-      </c>
-      <c r="Y44">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>179</v>
       </c>
-      <c r="B45" t="s">
-        <v>105</v>
-      </c>
-      <c r="O45">
-        <v>1</v>
-      </c>
-      <c r="P45">
-        <v>2</v>
-      </c>
-      <c r="Q45">
-        <v>2</v>
-      </c>
-      <c r="R45">
-        <v>2</v>
-      </c>
-      <c r="S45">
-        <v>2</v>
-      </c>
-      <c r="T45">
-        <v>2</v>
-      </c>
-      <c r="U45">
-        <v>2</v>
-      </c>
-      <c r="V45">
-        <v>3</v>
-      </c>
-      <c r="W45">
-        <v>3</v>
-      </c>
-      <c r="X45">
-        <v>3</v>
-      </c>
-      <c r="Y45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>1472</v>
+      </c>
+      <c r="D45">
+        <v>1487</v>
+      </c>
+      <c r="E45">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>180</v>
       </c>
-      <c r="B46" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <v>4</v>
-      </c>
-      <c r="F46">
-        <v>6</v>
-      </c>
-      <c r="G46">
-        <v>5</v>
-      </c>
-      <c r="H46">
-        <v>5</v>
-      </c>
-      <c r="I46">
-        <v>4</v>
-      </c>
-      <c r="J46">
-        <v>3</v>
-      </c>
-      <c r="K46">
-        <v>3</v>
-      </c>
-      <c r="L46">
-        <v>3</v>
-      </c>
-      <c r="M46">
-        <v>2</v>
-      </c>
-      <c r="N46">
-        <v>2</v>
-      </c>
-      <c r="O46">
-        <v>2</v>
-      </c>
-      <c r="P46">
-        <v>2</v>
-      </c>
-      <c r="Q46">
-        <v>1</v>
-      </c>
-      <c r="R46">
-        <v>1</v>
-      </c>
-      <c r="S46">
-        <v>1</v>
-      </c>
-      <c r="T46">
-        <v>1</v>
-      </c>
-      <c r="U46">
-        <v>1</v>
-      </c>
-      <c r="V46">
-        <v>1</v>
-      </c>
-      <c r="W46">
-        <v>1</v>
-      </c>
-      <c r="X46">
-        <v>1</v>
-      </c>
-      <c r="Y46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>181</v>
       </c>
-      <c r="B47" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47">
-        <v>10</v>
-      </c>
-      <c r="D47">
-        <v>19</v>
-      </c>
       <c r="E47">
         <v>22</v>
       </c>
-      <c r="F47">
-        <v>23</v>
-      </c>
-      <c r="G47">
-        <v>22</v>
-      </c>
-      <c r="H47">
-        <v>21</v>
-      </c>
-      <c r="I47">
-        <v>15</v>
-      </c>
-      <c r="J47">
-        <v>13</v>
-      </c>
-      <c r="K47">
-        <v>11</v>
-      </c>
-      <c r="L47">
-        <v>9</v>
-      </c>
-      <c r="M47">
-        <v>10</v>
-      </c>
-      <c r="N47">
-        <v>10</v>
-      </c>
-      <c r="O47">
-        <v>10</v>
-      </c>
-      <c r="P47">
-        <v>10</v>
-      </c>
-      <c r="Q47">
-        <v>9</v>
-      </c>
-      <c r="R47">
-        <v>9</v>
-      </c>
-      <c r="S47">
-        <v>10</v>
-      </c>
-      <c r="T47">
-        <v>10</v>
-      </c>
-      <c r="U47">
-        <v>10</v>
-      </c>
-      <c r="V47">
-        <v>10</v>
-      </c>
-      <c r="W47">
-        <v>11</v>
-      </c>
-      <c r="X47">
-        <v>11</v>
-      </c>
-      <c r="Y47">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>182</v>
       </c>
-      <c r="B48" t="s">
-        <v>108</v>
-      </c>
-      <c r="N48">
-        <v>2</v>
-      </c>
-      <c r="O48">
-        <v>3</v>
-      </c>
-      <c r="P48">
-        <v>5</v>
-      </c>
-      <c r="Q48">
-        <v>6</v>
-      </c>
-      <c r="R48">
-        <v>6</v>
-      </c>
-      <c r="S48">
-        <v>7</v>
-      </c>
-      <c r="T48">
-        <v>7</v>
-      </c>
-      <c r="U48">
-        <v>7</v>
-      </c>
-      <c r="V48">
-        <v>8</v>
-      </c>
-      <c r="W48">
-        <v>9</v>
-      </c>
-      <c r="X48">
-        <v>9</v>
-      </c>
-      <c r="Y48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>7842</v>
+      </c>
+      <c r="C48">
+        <v>2531</v>
+      </c>
+      <c r="D48">
+        <v>1856</v>
+      </c>
+      <c r="E48">
+        <v>10973</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>183</v>
       </c>
-      <c r="B49" t="s">
-        <v>109</v>
-      </c>
-      <c r="L49">
-        <v>3</v>
-      </c>
-      <c r="M49">
-        <v>4</v>
-      </c>
-      <c r="N49">
-        <v>4</v>
-      </c>
-      <c r="O49">
-        <v>5</v>
-      </c>
-      <c r="P49">
+      <c r="E49">
         <v>6</v>
       </c>
-      <c r="Q49">
-        <v>6</v>
-      </c>
-      <c r="R49">
-        <v>6</v>
-      </c>
-      <c r="S49">
-        <v>6</v>
-      </c>
-      <c r="T49">
-        <v>5</v>
-      </c>
-      <c r="U49">
-        <v>4</v>
-      </c>
-      <c r="V49">
-        <v>4</v>
-      </c>
-      <c r="W49">
-        <v>3</v>
-      </c>
-      <c r="X49">
-        <v>3</v>
-      </c>
-      <c r="Y49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>184</v>
       </c>
-      <c r="B50" t="s">
-        <v>110</v>
-      </c>
-      <c r="J50">
-        <v>3</v>
-      </c>
-      <c r="K50">
-        <v>6</v>
-      </c>
-      <c r="L50">
-        <v>8</v>
-      </c>
-      <c r="M50">
-        <v>9</v>
-      </c>
-      <c r="N50">
-        <v>10</v>
-      </c>
-      <c r="O50">
-        <v>11</v>
-      </c>
-      <c r="P50">
-        <v>11</v>
-      </c>
-      <c r="Q50">
-        <v>10</v>
-      </c>
-      <c r="R50">
-        <v>10</v>
-      </c>
-      <c r="S50">
-        <v>10</v>
-      </c>
-      <c r="T50">
-        <v>10</v>
-      </c>
-      <c r="U50">
-        <v>9</v>
-      </c>
-      <c r="V50">
-        <v>9</v>
-      </c>
-      <c r="W50">
-        <v>9</v>
-      </c>
-      <c r="X50">
-        <v>8</v>
-      </c>
-      <c r="Y50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>6450</v>
+      </c>
+      <c r="C50">
+        <v>1637</v>
+      </c>
+      <c r="D50">
+        <v>1007</v>
+      </c>
+      <c r="E50">
+        <v>7235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>185</v>
       </c>
-      <c r="B51" t="s">
-        <v>111</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>1</v>
-      </c>
-      <c r="P51">
-        <v>1</v>
-      </c>
-      <c r="Q51">
-        <v>1</v>
-      </c>
-      <c r="R51">
-        <v>1</v>
-      </c>
-      <c r="S51">
-        <v>1</v>
-      </c>
-      <c r="T51">
-        <v>1</v>
-      </c>
-      <c r="U51">
-        <v>1</v>
-      </c>
-      <c r="V51">
-        <v>1</v>
-      </c>
-      <c r="W51">
-        <v>1</v>
-      </c>
-      <c r="X51">
-        <v>1</v>
-      </c>
-      <c r="Y51">
-        <v>1</v>
+      <c r="B51">
+        <v>1850</v>
+      </c>
+      <c r="D51">
+        <v>1307</v>
+      </c>
+      <c r="E51">
+        <v>1956</v>
       </c>
     </row>
   </sheetData>
@@ -9445,6 +6956,3075 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="17" max="17" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T1" t="s">
+        <v>129</v>
+      </c>
+      <c r="U1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V1" t="s">
+        <v>131</v>
+      </c>
+      <c r="W1" t="s">
+        <v>132</v>
+      </c>
+      <c r="X1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <v>8</v>
+      </c>
+      <c r="M2">
+        <v>8</v>
+      </c>
+      <c r="N2">
+        <v>9</v>
+      </c>
+      <c r="O2">
+        <v>9</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <v>9</v>
+      </c>
+      <c r="R2">
+        <v>9</v>
+      </c>
+      <c r="S2">
+        <v>9</v>
+      </c>
+      <c r="T2">
+        <v>8</v>
+      </c>
+      <c r="U2">
+        <v>7</v>
+      </c>
+      <c r="V2">
+        <v>7</v>
+      </c>
+      <c r="W2">
+        <v>7</v>
+      </c>
+      <c r="X2">
+        <v>7</v>
+      </c>
+      <c r="Y2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+      <c r="V4">
+        <v>5</v>
+      </c>
+      <c r="W4">
+        <v>6</v>
+      </c>
+      <c r="X4">
+        <v>8</v>
+      </c>
+      <c r="Y4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <v>7</v>
+      </c>
+      <c r="P5">
+        <v>7</v>
+      </c>
+      <c r="Q5">
+        <v>7</v>
+      </c>
+      <c r="R5">
+        <v>7</v>
+      </c>
+      <c r="S5">
+        <v>6</v>
+      </c>
+      <c r="T5">
+        <v>4</v>
+      </c>
+      <c r="U5">
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <v>4</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <v>8</v>
+      </c>
+      <c r="P6">
+        <v>11</v>
+      </c>
+      <c r="Q6">
+        <v>20</v>
+      </c>
+      <c r="R6">
+        <v>23</v>
+      </c>
+      <c r="S6">
+        <v>30</v>
+      </c>
+      <c r="T6">
+        <v>38</v>
+      </c>
+      <c r="U6">
+        <v>43</v>
+      </c>
+      <c r="V6">
+        <v>45</v>
+      </c>
+      <c r="W6">
+        <v>52</v>
+      </c>
+      <c r="X6">
+        <v>53</v>
+      </c>
+      <c r="Y6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <v>4</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>6</v>
+      </c>
+      <c r="W7">
+        <v>6</v>
+      </c>
+      <c r="X7">
+        <v>7</v>
+      </c>
+      <c r="Y7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>6</v>
+      </c>
+      <c r="U8">
+        <v>6</v>
+      </c>
+      <c r="V8">
+        <v>6</v>
+      </c>
+      <c r="W8">
+        <v>6</v>
+      </c>
+      <c r="X8">
+        <v>5</v>
+      </c>
+      <c r="Y8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>6</v>
+      </c>
+      <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="T10">
+        <v>12</v>
+      </c>
+      <c r="U10">
+        <v>15</v>
+      </c>
+      <c r="V10">
+        <v>19</v>
+      </c>
+      <c r="W10">
+        <v>23</v>
+      </c>
+      <c r="X10">
+        <v>25</v>
+      </c>
+      <c r="Y10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>11</v>
+      </c>
+      <c r="O11">
+        <v>11</v>
+      </c>
+      <c r="P11">
+        <v>12</v>
+      </c>
+      <c r="Q11">
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <v>10</v>
+      </c>
+      <c r="S11">
+        <v>10</v>
+      </c>
+      <c r="T11">
+        <v>10</v>
+      </c>
+      <c r="U11">
+        <v>10</v>
+      </c>
+      <c r="V11">
+        <v>10</v>
+      </c>
+      <c r="W11">
+        <v>11</v>
+      </c>
+      <c r="X11">
+        <v>13</v>
+      </c>
+      <c r="Y11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="X12">
+        <v>2</v>
+      </c>
+      <c r="Y12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <v>2</v>
+      </c>
+      <c r="X13">
+        <v>2</v>
+      </c>
+      <c r="Y13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>14</v>
+      </c>
+      <c r="L14">
+        <v>19</v>
+      </c>
+      <c r="M14">
+        <v>20</v>
+      </c>
+      <c r="N14">
+        <v>22</v>
+      </c>
+      <c r="O14">
+        <v>25</v>
+      </c>
+      <c r="P14">
+        <v>27</v>
+      </c>
+      <c r="Q14">
+        <v>27</v>
+      </c>
+      <c r="R14">
+        <v>26</v>
+      </c>
+      <c r="S14">
+        <v>25</v>
+      </c>
+      <c r="T14">
+        <v>24</v>
+      </c>
+      <c r="U14">
+        <v>24</v>
+      </c>
+      <c r="V14">
+        <v>22</v>
+      </c>
+      <c r="W14">
+        <v>20</v>
+      </c>
+      <c r="X14">
+        <v>19</v>
+      </c>
+      <c r="Y14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>11</v>
+      </c>
+      <c r="K15">
+        <v>11</v>
+      </c>
+      <c r="L15">
+        <v>13</v>
+      </c>
+      <c r="M15">
+        <v>13</v>
+      </c>
+      <c r="N15">
+        <v>13</v>
+      </c>
+      <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>13</v>
+      </c>
+      <c r="Q15">
+        <v>12</v>
+      </c>
+      <c r="R15">
+        <v>11</v>
+      </c>
+      <c r="S15">
+        <v>11</v>
+      </c>
+      <c r="T15">
+        <v>11</v>
+      </c>
+      <c r="U15">
+        <v>11</v>
+      </c>
+      <c r="V15">
+        <v>10</v>
+      </c>
+      <c r="W15">
+        <v>10</v>
+      </c>
+      <c r="X15">
+        <v>9</v>
+      </c>
+      <c r="Y15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>6</v>
+      </c>
+      <c r="L16">
+        <v>9</v>
+      </c>
+      <c r="M16">
+        <v>11</v>
+      </c>
+      <c r="N16">
+        <v>11</v>
+      </c>
+      <c r="O16">
+        <v>11</v>
+      </c>
+      <c r="P16">
+        <v>11</v>
+      </c>
+      <c r="Q16">
+        <v>9</v>
+      </c>
+      <c r="R16">
+        <v>8</v>
+      </c>
+      <c r="S16">
+        <v>8</v>
+      </c>
+      <c r="T16">
+        <v>7</v>
+      </c>
+      <c r="U16">
+        <v>6</v>
+      </c>
+      <c r="V16">
+        <v>6</v>
+      </c>
+      <c r="W16">
+        <v>5</v>
+      </c>
+      <c r="X16">
+        <v>5</v>
+      </c>
+      <c r="Y16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>7</v>
+      </c>
+      <c r="N17">
+        <v>8</v>
+      </c>
+      <c r="O17">
+        <v>8</v>
+      </c>
+      <c r="P17">
+        <v>8</v>
+      </c>
+      <c r="Q17">
+        <v>7</v>
+      </c>
+      <c r="R17">
+        <v>6</v>
+      </c>
+      <c r="S17">
+        <v>6</v>
+      </c>
+      <c r="T17">
+        <v>5</v>
+      </c>
+      <c r="U17">
+        <v>5</v>
+      </c>
+      <c r="V17">
+        <v>5</v>
+      </c>
+      <c r="W17">
+        <v>4</v>
+      </c>
+      <c r="X17">
+        <v>4</v>
+      </c>
+      <c r="Y17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>13</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>9</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
+      </c>
+      <c r="M18">
+        <v>11</v>
+      </c>
+      <c r="N18">
+        <v>11</v>
+      </c>
+      <c r="O18">
+        <v>11</v>
+      </c>
+      <c r="P18">
+        <v>11</v>
+      </c>
+      <c r="Q18">
+        <v>9</v>
+      </c>
+      <c r="R18">
+        <v>9</v>
+      </c>
+      <c r="S18">
+        <v>8</v>
+      </c>
+      <c r="T18">
+        <v>7</v>
+      </c>
+      <c r="U18">
+        <v>7</v>
+      </c>
+      <c r="V18">
+        <v>7</v>
+      </c>
+      <c r="W18">
+        <v>6</v>
+      </c>
+      <c r="X18">
+        <v>6</v>
+      </c>
+      <c r="Y18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>6</v>
+      </c>
+      <c r="M19">
+        <v>6</v>
+      </c>
+      <c r="N19">
+        <v>6</v>
+      </c>
+      <c r="O19">
+        <v>7</v>
+      </c>
+      <c r="P19">
+        <v>8</v>
+      </c>
+      <c r="Q19">
+        <v>8</v>
+      </c>
+      <c r="R19">
+        <v>8</v>
+      </c>
+      <c r="S19">
+        <v>8</v>
+      </c>
+      <c r="T19">
+        <v>8</v>
+      </c>
+      <c r="U19">
+        <v>8</v>
+      </c>
+      <c r="V19">
+        <v>8</v>
+      </c>
+      <c r="W19">
+        <v>7</v>
+      </c>
+      <c r="X19">
+        <v>7</v>
+      </c>
+      <c r="Y19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <v>7</v>
+      </c>
+      <c r="J20">
+        <v>6</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <v>4</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>3</v>
+      </c>
+      <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
+      <c r="W20">
+        <v>2</v>
+      </c>
+      <c r="X20">
+        <v>2</v>
+      </c>
+      <c r="Y20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>9</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <v>6</v>
+      </c>
+      <c r="N21">
+        <v>6</v>
+      </c>
+      <c r="O21">
+        <v>6</v>
+      </c>
+      <c r="P21">
+        <v>6</v>
+      </c>
+      <c r="Q21">
+        <v>6</v>
+      </c>
+      <c r="R21">
+        <v>6</v>
+      </c>
+      <c r="S21">
+        <v>7</v>
+      </c>
+      <c r="T21">
+        <v>8</v>
+      </c>
+      <c r="U21">
+        <v>8</v>
+      </c>
+      <c r="V21">
+        <v>8</v>
+      </c>
+      <c r="W21">
+        <v>8</v>
+      </c>
+      <c r="X21">
+        <v>8</v>
+      </c>
+      <c r="Y21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>13</v>
+      </c>
+      <c r="H22">
+        <v>12</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>11</v>
+      </c>
+      <c r="K22">
+        <v>10</v>
+      </c>
+      <c r="L22">
+        <v>11</v>
+      </c>
+      <c r="M22">
+        <v>12</v>
+      </c>
+      <c r="N22">
+        <v>13</v>
+      </c>
+      <c r="O22">
+        <v>14</v>
+      </c>
+      <c r="P22">
+        <v>16</v>
+      </c>
+      <c r="Q22">
+        <v>15</v>
+      </c>
+      <c r="R22">
+        <v>14</v>
+      </c>
+      <c r="S22">
+        <v>14</v>
+      </c>
+      <c r="T22">
+        <v>12</v>
+      </c>
+      <c r="U22">
+        <v>12</v>
+      </c>
+      <c r="V22">
+        <v>11</v>
+      </c>
+      <c r="W22">
+        <v>10</v>
+      </c>
+      <c r="X22">
+        <v>10</v>
+      </c>
+      <c r="Y22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>6</v>
+      </c>
+      <c r="L23">
+        <v>9</v>
+      </c>
+      <c r="M23">
+        <v>11</v>
+      </c>
+      <c r="N23">
+        <v>12</v>
+      </c>
+      <c r="O23">
+        <v>12</v>
+      </c>
+      <c r="P23">
+        <v>13</v>
+      </c>
+      <c r="Q23">
+        <v>17</v>
+      </c>
+      <c r="R23">
+        <v>17</v>
+      </c>
+      <c r="S23">
+        <v>18</v>
+      </c>
+      <c r="T23">
+        <v>19</v>
+      </c>
+      <c r="U23">
+        <v>19</v>
+      </c>
+      <c r="V23">
+        <v>18</v>
+      </c>
+      <c r="W23">
+        <v>16</v>
+      </c>
+      <c r="X23">
+        <v>15</v>
+      </c>
+      <c r="Y23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="N24">
+        <v>7</v>
+      </c>
+      <c r="O24">
+        <v>9</v>
+      </c>
+      <c r="P24">
+        <v>10</v>
+      </c>
+      <c r="Q24">
+        <v>9</v>
+      </c>
+      <c r="R24">
+        <v>9</v>
+      </c>
+      <c r="S24">
+        <v>9</v>
+      </c>
+      <c r="T24">
+        <v>8</v>
+      </c>
+      <c r="U24">
+        <v>8</v>
+      </c>
+      <c r="V24">
+        <v>8</v>
+      </c>
+      <c r="W24">
+        <v>8</v>
+      </c>
+      <c r="X24">
+        <v>8</v>
+      </c>
+      <c r="Y24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="L25">
+        <v>6</v>
+      </c>
+      <c r="M25">
+        <v>7</v>
+      </c>
+      <c r="N25">
+        <v>7</v>
+      </c>
+      <c r="O25">
+        <v>8</v>
+      </c>
+      <c r="P25">
+        <v>8</v>
+      </c>
+      <c r="Q25">
+        <v>7</v>
+      </c>
+      <c r="R25">
+        <v>7</v>
+      </c>
+      <c r="S25">
+        <v>6</v>
+      </c>
+      <c r="T25">
+        <v>5</v>
+      </c>
+      <c r="U25">
+        <v>5</v>
+      </c>
+      <c r="V25">
+        <v>5</v>
+      </c>
+      <c r="W25">
+        <v>5</v>
+      </c>
+      <c r="X25">
+        <v>4</v>
+      </c>
+      <c r="Y25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>7</v>
+      </c>
+      <c r="K26">
+        <v>9</v>
+      </c>
+      <c r="L26">
+        <v>13</v>
+      </c>
+      <c r="M26">
+        <v>14</v>
+      </c>
+      <c r="N26">
+        <v>15</v>
+      </c>
+      <c r="O26">
+        <v>16</v>
+      </c>
+      <c r="P26">
+        <v>16</v>
+      </c>
+      <c r="Q26">
+        <v>13</v>
+      </c>
+      <c r="R26">
+        <v>13</v>
+      </c>
+      <c r="S26">
+        <v>11</v>
+      </c>
+      <c r="T26">
+        <v>10</v>
+      </c>
+      <c r="U26">
+        <v>10</v>
+      </c>
+      <c r="V26">
+        <v>9</v>
+      </c>
+      <c r="W26">
+        <v>9</v>
+      </c>
+      <c r="X26">
+        <v>9</v>
+      </c>
+      <c r="Y26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>2</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="V27">
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>6</v>
+      </c>
+      <c r="O28">
+        <v>6</v>
+      </c>
+      <c r="P28">
+        <v>6</v>
+      </c>
+      <c r="Q28">
+        <v>5</v>
+      </c>
+      <c r="R28">
+        <v>4</v>
+      </c>
+      <c r="S28">
+        <v>4</v>
+      </c>
+      <c r="T28">
+        <v>3</v>
+      </c>
+      <c r="U28">
+        <v>3</v>
+      </c>
+      <c r="V28">
+        <v>3</v>
+      </c>
+      <c r="W28">
+        <v>3</v>
+      </c>
+      <c r="X28">
+        <v>3</v>
+      </c>
+      <c r="Y28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <v>2</v>
+      </c>
+      <c r="X29">
+        <v>3</v>
+      </c>
+      <c r="Y29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <v>2</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>2</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30">
+        <v>2</v>
+      </c>
+      <c r="V30">
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <v>2</v>
+      </c>
+      <c r="X30">
+        <v>2</v>
+      </c>
+      <c r="Y30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31">
+        <v>7</v>
+      </c>
+      <c r="M31">
+        <v>7</v>
+      </c>
+      <c r="N31">
+        <v>8</v>
+      </c>
+      <c r="O31">
+        <v>10</v>
+      </c>
+      <c r="P31">
+        <v>12</v>
+      </c>
+      <c r="Q31">
+        <v>14</v>
+      </c>
+      <c r="R31">
+        <v>14</v>
+      </c>
+      <c r="S31">
+        <v>14</v>
+      </c>
+      <c r="T31">
+        <v>15</v>
+      </c>
+      <c r="U31">
+        <v>15</v>
+      </c>
+      <c r="V31">
+        <v>14</v>
+      </c>
+      <c r="W31">
+        <v>13</v>
+      </c>
+      <c r="X31">
+        <v>13</v>
+      </c>
+      <c r="Y31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32">
+        <v>3</v>
+      </c>
+      <c r="W32">
+        <v>3</v>
+      </c>
+      <c r="X32">
+        <v>3</v>
+      </c>
+      <c r="Y32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>17</v>
+      </c>
+      <c r="F33">
+        <v>27</v>
+      </c>
+      <c r="G33">
+        <v>34</v>
+      </c>
+      <c r="H33">
+        <v>40</v>
+      </c>
+      <c r="I33">
+        <v>34</v>
+      </c>
+      <c r="J33">
+        <v>33</v>
+      </c>
+      <c r="K33">
+        <v>31</v>
+      </c>
+      <c r="L33">
+        <v>33</v>
+      </c>
+      <c r="M33">
+        <v>34</v>
+      </c>
+      <c r="N33">
+        <v>34</v>
+      </c>
+      <c r="O33">
+        <v>37</v>
+      </c>
+      <c r="P33">
+        <v>43</v>
+      </c>
+      <c r="Q33">
+        <v>45</v>
+      </c>
+      <c r="R33">
+        <v>45</v>
+      </c>
+      <c r="S33">
+        <v>43</v>
+      </c>
+      <c r="T33">
+        <v>41</v>
+      </c>
+      <c r="U33">
+        <v>39</v>
+      </c>
+      <c r="V33">
+        <v>34</v>
+      </c>
+      <c r="W33">
+        <v>31</v>
+      </c>
+      <c r="X33">
+        <v>29</v>
+      </c>
+      <c r="Y33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>12</v>
+      </c>
+      <c r="F34">
+        <v>13</v>
+      </c>
+      <c r="G34">
+        <v>13</v>
+      </c>
+      <c r="H34">
+        <v>13</v>
+      </c>
+      <c r="I34">
+        <v>9</v>
+      </c>
+      <c r="J34">
+        <v>8</v>
+      </c>
+      <c r="K34">
+        <v>7</v>
+      </c>
+      <c r="L34">
+        <v>8</v>
+      </c>
+      <c r="M34">
+        <v>9</v>
+      </c>
+      <c r="N34">
+        <v>9</v>
+      </c>
+      <c r="O34">
+        <v>10</v>
+      </c>
+      <c r="P34">
+        <v>10</v>
+      </c>
+      <c r="Q34">
+        <v>11</v>
+      </c>
+      <c r="R34">
+        <v>12</v>
+      </c>
+      <c r="S34">
+        <v>12</v>
+      </c>
+      <c r="T34">
+        <v>11</v>
+      </c>
+      <c r="U34">
+        <v>11</v>
+      </c>
+      <c r="V34">
+        <v>11</v>
+      </c>
+      <c r="W34">
+        <v>12</v>
+      </c>
+      <c r="X34">
+        <v>13</v>
+      </c>
+      <c r="Y34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <v>3</v>
+      </c>
+      <c r="Q35">
+        <v>2</v>
+      </c>
+      <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
+        <v>2</v>
+      </c>
+      <c r="T35">
+        <v>2</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36">
+        <v>14</v>
+      </c>
+      <c r="H36">
+        <v>19</v>
+      </c>
+      <c r="I36">
+        <v>21</v>
+      </c>
+      <c r="J36">
+        <v>21</v>
+      </c>
+      <c r="K36">
+        <v>19</v>
+      </c>
+      <c r="L36">
+        <v>20</v>
+      </c>
+      <c r="M36">
+        <v>21</v>
+      </c>
+      <c r="N36">
+        <v>21</v>
+      </c>
+      <c r="O36">
+        <v>21</v>
+      </c>
+      <c r="P36">
+        <v>22</v>
+      </c>
+      <c r="Q36">
+        <v>24</v>
+      </c>
+      <c r="R36">
+        <v>23</v>
+      </c>
+      <c r="S36">
+        <v>23</v>
+      </c>
+      <c r="T36">
+        <v>24</v>
+      </c>
+      <c r="U36">
+        <v>23</v>
+      </c>
+      <c r="V36">
+        <v>21</v>
+      </c>
+      <c r="W36">
+        <v>19</v>
+      </c>
+      <c r="X36">
+        <v>18</v>
+      </c>
+      <c r="Y36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+      <c r="P37">
+        <v>8</v>
+      </c>
+      <c r="Q37">
+        <v>9</v>
+      </c>
+      <c r="R37">
+        <v>8</v>
+      </c>
+      <c r="S37">
+        <v>6</v>
+      </c>
+      <c r="T37">
+        <v>6</v>
+      </c>
+      <c r="U37">
+        <v>6</v>
+      </c>
+      <c r="V37">
+        <v>6</v>
+      </c>
+      <c r="W37">
+        <v>6</v>
+      </c>
+      <c r="X37">
+        <v>5</v>
+      </c>
+      <c r="Y37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" t="s">
+        <v>98</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38">
+        <v>2</v>
+      </c>
+      <c r="P38">
+        <v>3</v>
+      </c>
+      <c r="Q38">
+        <v>3</v>
+      </c>
+      <c r="R38">
+        <v>4</v>
+      </c>
+      <c r="S38">
+        <v>4</v>
+      </c>
+      <c r="T38">
+        <v>4</v>
+      </c>
+      <c r="U38">
+        <v>4</v>
+      </c>
+      <c r="V38">
+        <v>5</v>
+      </c>
+      <c r="W38">
+        <v>5</v>
+      </c>
+      <c r="X38">
+        <v>5</v>
+      </c>
+      <c r="Y38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>13</v>
+      </c>
+      <c r="E39">
+        <v>18</v>
+      </c>
+      <c r="F39">
+        <v>23</v>
+      </c>
+      <c r="G39">
+        <v>26</v>
+      </c>
+      <c r="H39">
+        <v>28</v>
+      </c>
+      <c r="I39">
+        <v>24</v>
+      </c>
+      <c r="J39">
+        <v>25</v>
+      </c>
+      <c r="K39">
+        <v>24</v>
+      </c>
+      <c r="L39">
+        <v>27</v>
+      </c>
+      <c r="M39">
+        <v>28</v>
+      </c>
+      <c r="N39">
+        <v>30</v>
+      </c>
+      <c r="O39">
+        <v>32</v>
+      </c>
+      <c r="P39">
+        <v>36</v>
+      </c>
+      <c r="Q39">
+        <v>34</v>
+      </c>
+      <c r="R39">
+        <v>33</v>
+      </c>
+      <c r="S39">
+        <v>30</v>
+      </c>
+      <c r="T39">
+        <v>27</v>
+      </c>
+      <c r="U39">
+        <v>25</v>
+      </c>
+      <c r="V39">
+        <v>23</v>
+      </c>
+      <c r="W39">
+        <v>21</v>
+      </c>
+      <c r="X39">
+        <v>19</v>
+      </c>
+      <c r="Y39">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40">
+        <v>2</v>
+      </c>
+      <c r="P40">
+        <v>3</v>
+      </c>
+      <c r="Q40">
+        <v>2</v>
+      </c>
+      <c r="R40">
+        <v>2</v>
+      </c>
+      <c r="S40">
+        <v>2</v>
+      </c>
+      <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="U40">
+        <v>2</v>
+      </c>
+      <c r="V40">
+        <v>2</v>
+      </c>
+      <c r="W40">
+        <v>2</v>
+      </c>
+      <c r="X40">
+        <v>2</v>
+      </c>
+      <c r="Y40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <v>9</v>
+      </c>
+      <c r="G41">
+        <v>9</v>
+      </c>
+      <c r="H41">
+        <v>9</v>
+      </c>
+      <c r="I41">
+        <v>7</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+      <c r="L41">
+        <v>5</v>
+      </c>
+      <c r="M41">
+        <v>7</v>
+      </c>
+      <c r="N41">
+        <v>7</v>
+      </c>
+      <c r="O41">
+        <v>7</v>
+      </c>
+      <c r="P41">
+        <v>7</v>
+      </c>
+      <c r="Q41">
+        <v>6</v>
+      </c>
+      <c r="R41">
+        <v>6</v>
+      </c>
+      <c r="S41">
+        <v>6</v>
+      </c>
+      <c r="T41">
+        <v>6</v>
+      </c>
+      <c r="U41">
+        <v>6</v>
+      </c>
+      <c r="V41">
+        <v>6</v>
+      </c>
+      <c r="W41">
+        <v>6</v>
+      </c>
+      <c r="X41">
+        <v>6</v>
+      </c>
+      <c r="Y41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" t="s">
+        <v>102</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42">
+        <v>2</v>
+      </c>
+      <c r="P42">
+        <v>3</v>
+      </c>
+      <c r="Q42">
+        <v>2</v>
+      </c>
+      <c r="R42">
+        <v>2</v>
+      </c>
+      <c r="S42">
+        <v>2</v>
+      </c>
+      <c r="T42">
+        <v>2</v>
+      </c>
+      <c r="U42">
+        <v>2</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>1</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43">
+        <v>9</v>
+      </c>
+      <c r="H43">
+        <v>13</v>
+      </c>
+      <c r="I43">
+        <v>11</v>
+      </c>
+      <c r="J43">
+        <v>10</v>
+      </c>
+      <c r="K43">
+        <v>8</v>
+      </c>
+      <c r="L43">
+        <v>10</v>
+      </c>
+      <c r="M43">
+        <v>10</v>
+      </c>
+      <c r="N43">
+        <v>10</v>
+      </c>
+      <c r="O43">
+        <v>10</v>
+      </c>
+      <c r="P43">
+        <v>10</v>
+      </c>
+      <c r="Q43">
+        <v>9</v>
+      </c>
+      <c r="R43">
+        <v>10</v>
+      </c>
+      <c r="S43">
+        <v>9</v>
+      </c>
+      <c r="T43">
+        <v>9</v>
+      </c>
+      <c r="U43">
+        <v>8</v>
+      </c>
+      <c r="V43">
+        <v>9</v>
+      </c>
+      <c r="W43">
+        <v>9</v>
+      </c>
+      <c r="X43">
+        <v>9</v>
+      </c>
+      <c r="Y43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" t="s">
+        <v>104</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+      <c r="L44">
+        <v>6</v>
+      </c>
+      <c r="M44">
+        <v>11</v>
+      </c>
+      <c r="N44">
+        <v>13</v>
+      </c>
+      <c r="O44">
+        <v>16</v>
+      </c>
+      <c r="P44">
+        <v>18</v>
+      </c>
+      <c r="Q44">
+        <v>21</v>
+      </c>
+      <c r="R44">
+        <v>21</v>
+      </c>
+      <c r="S44">
+        <v>22</v>
+      </c>
+      <c r="T44">
+        <v>23</v>
+      </c>
+      <c r="U44">
+        <v>24</v>
+      </c>
+      <c r="V44">
+        <v>27</v>
+      </c>
+      <c r="W44">
+        <v>30</v>
+      </c>
+      <c r="X44">
+        <v>32</v>
+      </c>
+      <c r="Y44">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" t="s">
+        <v>105</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>2</v>
+      </c>
+      <c r="Q45">
+        <v>2</v>
+      </c>
+      <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>2</v>
+      </c>
+      <c r="T45">
+        <v>2</v>
+      </c>
+      <c r="U45">
+        <v>2</v>
+      </c>
+      <c r="V45">
+        <v>3</v>
+      </c>
+      <c r="W45">
+        <v>3</v>
+      </c>
+      <c r="X45">
+        <v>3</v>
+      </c>
+      <c r="Y45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
+        <v>2</v>
+      </c>
+      <c r="P46">
+        <v>2</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>1</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>1</v>
+      </c>
+      <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
+      </c>
+      <c r="Y46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>19</v>
+      </c>
+      <c r="E47">
+        <v>22</v>
+      </c>
+      <c r="F47">
+        <v>23</v>
+      </c>
+      <c r="G47">
+        <v>22</v>
+      </c>
+      <c r="H47">
+        <v>21</v>
+      </c>
+      <c r="I47">
+        <v>15</v>
+      </c>
+      <c r="J47">
+        <v>13</v>
+      </c>
+      <c r="K47">
+        <v>11</v>
+      </c>
+      <c r="L47">
+        <v>9</v>
+      </c>
+      <c r="M47">
+        <v>10</v>
+      </c>
+      <c r="N47">
+        <v>10</v>
+      </c>
+      <c r="O47">
+        <v>10</v>
+      </c>
+      <c r="P47">
+        <v>10</v>
+      </c>
+      <c r="Q47">
+        <v>9</v>
+      </c>
+      <c r="R47">
+        <v>9</v>
+      </c>
+      <c r="S47">
+        <v>10</v>
+      </c>
+      <c r="T47">
+        <v>10</v>
+      </c>
+      <c r="U47">
+        <v>10</v>
+      </c>
+      <c r="V47">
+        <v>10</v>
+      </c>
+      <c r="W47">
+        <v>11</v>
+      </c>
+      <c r="X47">
+        <v>11</v>
+      </c>
+      <c r="Y47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" t="s">
+        <v>108</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48">
+        <v>3</v>
+      </c>
+      <c r="P48">
+        <v>5</v>
+      </c>
+      <c r="Q48">
+        <v>6</v>
+      </c>
+      <c r="R48">
+        <v>6</v>
+      </c>
+      <c r="S48">
+        <v>7</v>
+      </c>
+      <c r="T48">
+        <v>7</v>
+      </c>
+      <c r="U48">
+        <v>7</v>
+      </c>
+      <c r="V48">
+        <v>8</v>
+      </c>
+      <c r="W48">
+        <v>9</v>
+      </c>
+      <c r="X48">
+        <v>9</v>
+      </c>
+      <c r="Y48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" t="s">
+        <v>109</v>
+      </c>
+      <c r="L49">
+        <v>3</v>
+      </c>
+      <c r="M49">
+        <v>4</v>
+      </c>
+      <c r="N49">
+        <v>4</v>
+      </c>
+      <c r="O49">
+        <v>5</v>
+      </c>
+      <c r="P49">
+        <v>6</v>
+      </c>
+      <c r="Q49">
+        <v>6</v>
+      </c>
+      <c r="R49">
+        <v>6</v>
+      </c>
+      <c r="S49">
+        <v>6</v>
+      </c>
+      <c r="T49">
+        <v>5</v>
+      </c>
+      <c r="U49">
+        <v>4</v>
+      </c>
+      <c r="V49">
+        <v>4</v>
+      </c>
+      <c r="W49">
+        <v>3</v>
+      </c>
+      <c r="X49">
+        <v>3</v>
+      </c>
+      <c r="Y49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" t="s">
+        <v>110</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+      <c r="K50">
+        <v>6</v>
+      </c>
+      <c r="L50">
+        <v>8</v>
+      </c>
+      <c r="M50">
+        <v>9</v>
+      </c>
+      <c r="N50">
+        <v>10</v>
+      </c>
+      <c r="O50">
+        <v>11</v>
+      </c>
+      <c r="P50">
+        <v>11</v>
+      </c>
+      <c r="Q50">
+        <v>10</v>
+      </c>
+      <c r="R50">
+        <v>10</v>
+      </c>
+      <c r="S50">
+        <v>10</v>
+      </c>
+      <c r="T50">
+        <v>10</v>
+      </c>
+      <c r="U50">
+        <v>9</v>
+      </c>
+      <c r="V50">
+        <v>9</v>
+      </c>
+      <c r="W50">
+        <v>9</v>
+      </c>
+      <c r="X50">
+        <v>8</v>
+      </c>
+      <c r="Y50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>185</v>
+      </c>
+      <c r="B51" t="s">
+        <v>111</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="T51">
+        <v>1</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
+      <c r="V51">
+        <v>1</v>
+      </c>
+      <c r="W51">
+        <v>1</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
+      </c>
+      <c r="Y51">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
